--- a/db_data/cert_kanban.xlsx
+++ b/db_data/cert_kanban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBAC63C-79C5-439D-82D7-3C1353C4464B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3C1CC3-91A3-41E0-BA86-D0A445A6D0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-16297" windowWidth="28996" windowHeight="15794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="247">
   <si>
     <t>JV</t>
   </si>
@@ -686,46 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cert_req</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC:DERI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoHS:SDoC(GBT36560)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoHS:SDoC(国推)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoHS:SDoC(零部件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRRC:ORIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE-LVD:DERI|CE-EMC:DERI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTBC:SDoC(CE-RED)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSMI:ORIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCC:CHAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cert_owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -762,14 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMC:DEEU2003024|LVD:T2003024-711</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LVD:HKT21026002-S|EMC:HKT21026003-E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,7 +734,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ONGOING</t>
+    <t>EUCEXXDERI20210112002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUCEXXDERI20191212002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEEU2003024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2003024-711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKT21026002-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKT21026003-E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DERI</t>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIG</t>
+  </si>
+  <si>
+    <t>ORIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE-LVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE-EMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDoC|GBT36560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDoC|国推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDoC|零部件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDoC|CE-RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,25 +1162,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="25.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.8984375" customWidth="1"/>
+    <col min="1" max="1" width="26.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.84765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="12" max="13" width="10.34765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.546875" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.34765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
@@ -1158,37 +1204,40 @@
         <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>214</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="N1" t="s">
-        <v>229</v>
+        <v>217</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="O1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.65">
+        <v>215</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -1208,31 +1257,34 @@
         <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="L2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="3">
         <v>43661</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>43704</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
@@ -1252,31 +1304,34 @@
         <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
-        <v>232</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="L3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="3">
         <v>43851</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>44326</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -1296,31 +1351,34 @@
         <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="L4" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="3">
         <v>43851</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>44326</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -1340,31 +1398,34 @@
         <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M5" s="3">
         <v>43851</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>44322</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -1384,31 +1445,34 @@
         <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
-        <v>232</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L6" t="s">
+        <v>220</v>
+      </c>
+      <c r="M6" s="3">
         <v>43851</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>44326</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>161</v>
       </c>
@@ -1428,31 +1492,34 @@
         <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="L7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="3">
         <v>43851</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>44322</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -1472,31 +1539,34 @@
         <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" s="3">
         <v>43851</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44322</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -1516,31 +1586,34 @@
         <v>207</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
-        <v>232</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="3">
         <v>43851</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43874</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>164</v>
       </c>
@@ -1560,34 +1633,37 @@
         <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>232</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="3">
         <v>43851</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43990</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>33</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -1607,31 +1683,34 @@
         <v>207</v>
       </c>
       <c r="G11" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>37</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="K11" t="s">
-        <v>232</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="L11" t="s">
+        <v>220</v>
+      </c>
+      <c r="M11" s="3">
         <v>44019</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>44083</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>166</v>
       </c>
@@ -1651,31 +1730,34 @@
         <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>43</v>
       </c>
-      <c r="K12" t="s">
-        <v>232</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" t="s">
+        <v>220</v>
+      </c>
+      <c r="M12" s="3">
         <v>43922</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43976</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>167</v>
       </c>
@@ -1695,31 +1777,34 @@
         <v>207</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H13" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>46</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>4</v>
       </c>
-      <c r="K13" t="s">
-        <v>232</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="L13" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="3">
         <v>44039</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>44103</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -1739,37 +1824,40 @@
         <v>207</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>49</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>50</v>
       </c>
-      <c r="K14" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="3">
         <v>44165</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44113</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>169</v>
       </c>
@@ -1789,37 +1877,40 @@
         <v>207</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H15" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>54</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>55</v>
       </c>
-      <c r="K15" t="s">
-        <v>233</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="3">
         <v>44165</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>44113</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>56</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>57</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>170</v>
       </c>
@@ -1839,31 +1930,34 @@
         <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16">
+        <v>231</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1824</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>59</v>
       </c>
-      <c r="K16" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="L16" t="s">
+        <v>220</v>
+      </c>
+      <c r="M16" s="3">
         <v>44145</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>44193</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -1880,28 +1974,31 @@
         <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>61</v>
       </c>
-      <c r="K17" t="s">
-        <v>233</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" s="3">
         <v>44165</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>62</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
@@ -1921,31 +2018,34 @@
         <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>67</v>
       </c>
-      <c r="K18" t="s">
-        <v>232</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" s="3">
         <v>44198</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44235</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
@@ -1965,34 +2065,37 @@
         <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" s="3">
+        <v>71</v>
+      </c>
+      <c r="L19" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="3">
         <v>43891</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>43949</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>72</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>174</v>
       </c>
@@ -2012,31 +2115,34 @@
         <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>74</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="K20" t="s">
-        <v>232</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" t="s">
+        <v>220</v>
+      </c>
+      <c r="M20" s="3">
         <v>44136</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>43790</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2056,31 +2162,34 @@
         <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>77</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>78</v>
       </c>
-      <c r="K21" t="s">
-        <v>232</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" s="3">
         <v>44136</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43790</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
@@ -2100,31 +2209,34 @@
         <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="H22" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
         <v>80</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>81</v>
       </c>
-      <c r="K22" t="s">
-        <v>232</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" s="3">
         <v>44136</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43830</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
@@ -2144,31 +2256,34 @@
         <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="H23" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
         <v>83</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>84</v>
       </c>
-      <c r="K23" t="s">
-        <v>232</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" s="3">
         <v>43952</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43971</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -2188,31 +2303,34 @@
         <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="H24" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
-      </c>
-      <c r="L24" s="3">
+        <v>71</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="3">
         <v>44151</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44187</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
         <v>179</v>
       </c>
@@ -2232,31 +2350,34 @@
         <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
         <v>87</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>88</v>
       </c>
-      <c r="K25" t="s">
-        <v>232</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" s="3">
         <v>44151</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>44187</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
         <v>180</v>
       </c>
@@ -2276,31 +2397,34 @@
         <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>90</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>91</v>
       </c>
-      <c r="K26" t="s">
-        <v>232</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" s="3">
         <v>44151</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44187</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
         <v>181</v>
       </c>
@@ -2320,31 +2444,34 @@
         <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="H27" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
         <v>93</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>94</v>
       </c>
-      <c r="K27" t="s">
-        <v>232</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" s="3">
         <v>44151</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44211</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
         <v>182</v>
       </c>
@@ -2364,34 +2491,37 @@
         <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H28" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
         <v>42</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>97</v>
       </c>
-      <c r="K28" t="s">
-        <v>232</v>
-      </c>
-      <c r="L28" s="3">
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" s="3">
         <v>44039</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>44088</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>98</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
         <v>183</v>
       </c>
@@ -2411,31 +2541,34 @@
         <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H29" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
         <v>37</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>101</v>
       </c>
-      <c r="K29" t="s">
-        <v>232</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" s="3">
         <v>44039</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>44133</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
         <v>184</v>
       </c>
@@ -2455,31 +2588,34 @@
         <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H30" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
         <v>42</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>103</v>
       </c>
-      <c r="K30" t="s">
-        <v>234</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" s="3">
         <v>44189</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>44270</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A31" s="1" t="s">
         <v>185</v>
       </c>
@@ -2499,34 +2635,37 @@
         <v>207</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H31" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31">
+        <v>235</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>1824</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>106</v>
       </c>
-      <c r="K31" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="L31" t="s">
+        <v>220</v>
+      </c>
+      <c r="M31" s="3">
         <v>44194</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>44236</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>107</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
         <v>192</v>
       </c>
@@ -2534,10 +2673,10 @@
         <v>109</v>
       </c>
       <c r="C32">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -2546,39 +2685,42 @@
         <v>208</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H32" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
         <v>110</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>111</v>
       </c>
-      <c r="K32" t="s">
-        <v>232</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" t="s">
+        <v>220</v>
+      </c>
+      <c r="M32" s="3">
         <v>43811</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>43906</v>
       </c>
-      <c r="N32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="O32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
@@ -2590,39 +2732,42 @@
         <v>208</v>
       </c>
       <c r="G33" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="H33" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I33" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L33" s="3">
-        <v>44151</v>
+        <v>111</v>
+      </c>
+      <c r="L33" t="s">
+        <v>220</v>
       </c>
       <c r="M33" s="3">
-        <v>44194</v>
-      </c>
-      <c r="N33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.65">
+        <v>43811</v>
+      </c>
+      <c r="N33" s="3">
+        <v>43906</v>
+      </c>
+      <c r="O33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="C34">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
@@ -2631,36 +2776,39 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G34" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
-      </c>
-      <c r="L34" s="3">
-        <v>43964</v>
+        <v>113</v>
+      </c>
+      <c r="L34" t="s">
+        <v>220</v>
       </c>
       <c r="M34" s="3">
-        <v>44050</v>
-      </c>
-      <c r="N34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.65">
+        <v>44151</v>
+      </c>
+      <c r="N34" s="3">
+        <v>44194</v>
+      </c>
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
         <v>115</v>
@@ -2678,33 +2826,36 @@
         <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="H35" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L35" s="3">
+        <v>117</v>
+      </c>
+      <c r="L35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" s="3">
         <v>43964</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44050</v>
       </c>
-      <c r="N35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="O35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
         <v>115</v>
@@ -2722,39 +2873,42 @@
         <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L36" s="3">
+        <v>120</v>
+      </c>
+      <c r="L36" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" s="3">
         <v>43964</v>
       </c>
-      <c r="M36" s="3">
+      <c r="N36" s="3">
         <v>44050</v>
       </c>
-      <c r="N36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
@@ -2763,39 +2917,39 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K37" t="s">
-        <v>232</v>
-      </c>
-      <c r="L37" s="3">
-        <v>44155</v>
+        <v>123</v>
+      </c>
+      <c r="L37" t="s">
+        <v>220</v>
       </c>
       <c r="M37" s="3">
-        <v>44217</v>
-      </c>
-      <c r="N37" t="s">
-        <v>128</v>
-      </c>
-      <c r="P37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.65">
+        <v>43964</v>
+      </c>
+      <c r="N37" s="3">
+        <v>44050</v>
+      </c>
+      <c r="O37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
         <v>125</v>
@@ -2813,218 +2967,239 @@
         <v>210</v>
       </c>
       <c r="G38" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="H38" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" t="s">
+        <v>220</v>
+      </c>
+      <c r="M38" s="3">
+        <v>44155</v>
+      </c>
+      <c r="N38" s="3">
+        <v>44217</v>
+      </c>
+      <c r="O38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" t="s">
+        <v>234</v>
+      </c>
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
         <v>130</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K39" t="s">
         <v>131</v>
       </c>
-      <c r="K38" t="s">
-        <v>232</v>
-      </c>
-      <c r="L38" s="3">
+      <c r="L39" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="3">
         <v>44155</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N39" s="3">
         <v>44217</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O39" t="s">
         <v>132</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.65">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>133</v>
       </c>
-      <c r="C39">
-        <v>1000</v>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C40">
+        <v>500</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
         <v>134</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>208</v>
       </c>
-      <c r="G39" t="s">
-        <v>217</v>
-      </c>
-      <c r="H39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="G40" t="s">
+        <v>236</v>
+      </c>
+      <c r="H40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
         <v>135</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K40" t="s">
         <v>136</v>
       </c>
-      <c r="K39" t="s">
-        <v>232</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="L40" t="s">
+        <v>220</v>
+      </c>
+      <c r="M40" s="3">
         <v>44232</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N40" s="3">
         <v>44216</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O40" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41">
+        <v>500</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" t="s">
         <v>231</v>
       </c>
-      <c r="P39" t="s">
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" t="s">
+        <v>136</v>
+      </c>
+      <c r="L41" t="s">
+        <v>220</v>
+      </c>
+      <c r="M41" s="3">
+        <v>44232</v>
+      </c>
+      <c r="N41" s="3">
+        <v>44216</v>
+      </c>
+      <c r="O41" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.65">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A42" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H40" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>138</v>
-      </c>
-      <c r="J40" t="s">
-        <v>138</v>
-      </c>
-      <c r="K40" t="s">
-        <v>232</v>
-      </c>
-      <c r="L40" s="3">
-        <v>44214</v>
-      </c>
-      <c r="M40" s="3">
-        <v>44348</v>
-      </c>
-      <c r="N40" t="s">
-        <v>138</v>
-      </c>
-      <c r="P40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.65">
-      <c r="A41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41">
-        <v>2280</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" t="s">
-        <v>212</v>
-      </c>
-      <c r="H41" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>140</v>
-      </c>
-      <c r="J41" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" t="s">
-        <v>232</v>
-      </c>
-      <c r="L41" s="3">
-        <v>44247</v>
-      </c>
-      <c r="M41" s="3">
-        <v>44284</v>
-      </c>
-      <c r="N41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.65">
-      <c r="A42" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="B42" t="s">
         <v>202</v>
       </c>
       <c r="C42">
-        <v>2280</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
         <v>207</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
-      </c>
-      <c r="L42" s="3">
-        <v>44258</v>
+        <v>138</v>
+      </c>
+      <c r="L42" t="s">
+        <v>220</v>
       </c>
       <c r="M42" s="3">
-        <v>44302</v>
-      </c>
-      <c r="N42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.65">
+        <v>44214</v>
+      </c>
+      <c r="N42" s="3">
+        <v>44348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A43" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
         <v>202</v>
@@ -3042,112 +3217,215 @@
         <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H43" t="s">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K43" t="s">
-        <v>232</v>
-      </c>
-      <c r="L43" s="3">
-        <v>44263</v>
+        <v>141</v>
+      </c>
+      <c r="L43" t="s">
+        <v>220</v>
       </c>
       <c r="M43" s="3">
-        <v>44302</v>
-      </c>
-      <c r="N43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.65">
+        <v>44247</v>
+      </c>
+      <c r="N43" s="3">
+        <v>44284</v>
+      </c>
+      <c r="O43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.65">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
         <v>202</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" t="s">
+        <v>231</v>
+      </c>
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44" t="s">
+        <v>220</v>
+      </c>
+      <c r="M44" s="3">
+        <v>44258</v>
+      </c>
+      <c r="N44" s="3">
+        <v>44302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45">
+        <v>2280</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45" t="s">
+        <v>231</v>
+      </c>
+      <c r="I45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" s="3">
+        <v>44263</v>
+      </c>
+      <c r="N45" s="3">
+        <v>44302</v>
+      </c>
+      <c r="O45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>149</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>65</v>
       </c>
-      <c r="F44" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" t="s">
         <v>149</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J46" t="s">
         <v>66</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K46" t="s">
         <v>150</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L46" t="s">
+        <v>220</v>
+      </c>
+      <c r="M46" s="3">
+        <v>44253</v>
+      </c>
+      <c r="N46" s="3">
+        <v>44278</v>
+      </c>
+      <c r="O46" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="A47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" t="s">
         <v>232</v>
       </c>
-      <c r="L44" s="3">
-        <v>44253</v>
-      </c>
-      <c r="M44" s="3">
-        <v>44278</v>
-      </c>
-      <c r="N44" t="s">
-        <v>151</v>
-      </c>
-      <c r="P44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.65">
-      <c r="A45" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H47" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
         <v>154</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K47" t="s">
         <v>155</v>
       </c>
-      <c r="K45" t="s">
-        <v>235</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L47" t="s">
+        <v>246</v>
+      </c>
+      <c r="M47" s="3">
         <v>44253</v>
       </c>
     </row>

--- a/db_data/cert_kanban.xlsx
+++ b/db_data/cert_kanban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3C1CC3-91A3-41E0-BA86-D0A445A6D0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5B55E-C6F2-4E8E-BA3B-F964AAEC60C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-16297" windowWidth="28996" windowHeight="15794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="249">
   <si>
     <t>JV</t>
   </si>
@@ -808,23 +808,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SDoC|GBT36560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDoC|国推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDoC|零部件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDoC|CE-RED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBT36560</t>
+  </si>
+  <si>
+    <t>SDoC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国推</t>
+  </si>
+  <si>
+    <t>零部件</t>
+  </si>
+  <si>
+    <t>CE-RED</t>
+  </si>
+  <si>
+    <t>cert_method_desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.65"/>
@@ -1176,15 +1180,16 @@
     <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.546875" customWidth="1"/>
-    <col min="12" max="12" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.34765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.94921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.546875" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.34765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>200</v>
       </c>
@@ -1210,34 +1215,37 @@
         <v>230</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>219</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -1262,29 +1270,29 @@
       <c r="H2" t="s">
         <v>231</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="M2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N2" s="3">
         <v>43661</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>43704</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
@@ -1309,29 +1317,29 @@
       <c r="H3" t="s">
         <v>231</v>
       </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="M3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="3">
         <v>43851</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>44326</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
         <v>158</v>
       </c>
@@ -1356,29 +1364,29 @@
       <c r="H4" t="s">
         <v>231</v>
       </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
       <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
-        <v>220</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="M4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N4" s="3">
         <v>43851</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>44326</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
@@ -1403,29 +1411,29 @@
       <c r="H5" t="s">
         <v>231</v>
       </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" t="s">
-        <v>220</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="M5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N5" s="3">
         <v>43851</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>44322</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
@@ -1450,29 +1458,29 @@
       <c r="H6" t="s">
         <v>231</v>
       </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
-        <v>220</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="M6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="3">
         <v>43851</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>44326</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
         <v>161</v>
       </c>
@@ -1497,29 +1505,29 @@
       <c r="H7" t="s">
         <v>231</v>
       </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
       <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="M7" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" s="3">
         <v>43851</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>44322</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -1544,29 +1552,29 @@
       <c r="H8" t="s">
         <v>231</v>
       </c>
-      <c r="I8" t="s">
-        <v>0</v>
-      </c>
       <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="3">
         <v>43851</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44322</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -1591,29 +1599,29 @@
       <c r="H9" t="s">
         <v>231</v>
       </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
       <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="L9" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" t="s">
+        <v>220</v>
+      </c>
+      <c r="N9" s="3">
         <v>43851</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>43874</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
         <v>164</v>
       </c>
@@ -1638,32 +1646,32 @@
       <c r="H10" t="s">
         <v>231</v>
       </c>
-      <c r="I10" t="s">
-        <v>0</v>
-      </c>
       <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>32</v>
       </c>
-      <c r="L10" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="3">
         <v>43851</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43990</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -1688,29 +1696,29 @@
       <c r="H11" t="s">
         <v>231</v>
       </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>37</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>38</v>
       </c>
-      <c r="L11" t="s">
-        <v>220</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="M11" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="3">
         <v>44019</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>44083</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
         <v>166</v>
       </c>
@@ -1735,29 +1743,29 @@
       <c r="H12" t="s">
         <v>231</v>
       </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
       <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>43</v>
       </c>
-      <c r="L12" t="s">
-        <v>220</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" t="s">
+        <v>220</v>
+      </c>
+      <c r="N12" s="3">
         <v>43922</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>43976</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
         <v>167</v>
       </c>
@@ -1782,29 +1790,29 @@
       <c r="H13" t="s">
         <v>231</v>
       </c>
-      <c r="I13" t="s">
-        <v>0</v>
-      </c>
       <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>46</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>4</v>
       </c>
-      <c r="L13" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="M13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="3">
         <v>44039</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>44103</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -1829,35 +1837,35 @@
       <c r="H14" t="s">
         <v>231</v>
       </c>
-      <c r="I14" t="s">
-        <v>0</v>
-      </c>
       <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>49</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>50</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44165</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44113</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>51</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
         <v>169</v>
       </c>
@@ -1882,35 +1890,35 @@
       <c r="H15" t="s">
         <v>231</v>
       </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
       <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>54</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>55</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>221</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>44165</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44113</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>56</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>57</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
         <v>170</v>
       </c>
@@ -1935,29 +1943,29 @@
       <c r="H16" t="s">
         <v>231</v>
       </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>1824</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>59</v>
       </c>
-      <c r="L16" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="M16" t="s">
+        <v>220</v>
+      </c>
+      <c r="N16" s="3">
         <v>44145</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>44193</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -1979,26 +1987,26 @@
       <c r="H17" t="s">
         <v>231</v>
       </c>
-      <c r="I17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>61</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>221</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44165</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
@@ -2023,29 +2031,29 @@
       <c r="H18" t="s">
         <v>231</v>
       </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>66</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>67</v>
       </c>
-      <c r="L18" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" t="s">
+        <v>220</v>
+      </c>
+      <c r="N18" s="3">
         <v>44198</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44235</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
@@ -2070,32 +2078,32 @@
       <c r="H19" t="s">
         <v>231</v>
       </c>
-      <c r="I19" t="s">
-        <v>0</v>
-      </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="3">
+        <v>71</v>
+      </c>
+      <c r="M19" t="s">
+        <v>220</v>
+      </c>
+      <c r="N19" s="3">
         <v>43891</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>43949</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
         <v>174</v>
       </c>
@@ -2118,31 +2126,34 @@
         <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>74</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>75</v>
       </c>
-      <c r="L20" t="s">
-        <v>220</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="3">
         <v>44136</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>43790</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -2165,31 +2176,34 @@
         <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>77</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>78</v>
       </c>
-      <c r="L21" t="s">
-        <v>220</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" t="s">
+        <v>220</v>
+      </c>
+      <c r="N21" s="3">
         <v>44136</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43790</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
@@ -2215,28 +2229,31 @@
         <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>80</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>81</v>
       </c>
-      <c r="L22" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" s="3">
         <v>44136</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43830</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
@@ -2262,28 +2279,31 @@
         <v>244</v>
       </c>
       <c r="I23" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>83</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>84</v>
       </c>
-      <c r="L23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N23" s="3">
         <v>43952</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43971</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -2309,28 +2329,31 @@
         <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
-      </c>
-      <c r="M24" s="3">
+        <v>71</v>
+      </c>
+      <c r="M24" t="s">
+        <v>220</v>
+      </c>
+      <c r="N24" s="3">
         <v>44151</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44187</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
         <v>179</v>
       </c>
@@ -2353,31 +2376,34 @@
         <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>87</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>88</v>
       </c>
-      <c r="L25" t="s">
-        <v>220</v>
-      </c>
-      <c r="M25" s="3">
+      <c r="M25" t="s">
+        <v>220</v>
+      </c>
+      <c r="N25" s="3">
         <v>44151</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <v>44187</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
         <v>180</v>
       </c>
@@ -2400,31 +2426,34 @@
         <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I26" t="s">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>90</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>91</v>
       </c>
-      <c r="L26" t="s">
-        <v>220</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" t="s">
+        <v>220</v>
+      </c>
+      <c r="N26" s="3">
         <v>44151</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>44187</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
         <v>181</v>
       </c>
@@ -2450,28 +2479,31 @@
         <v>244</v>
       </c>
       <c r="I27" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>93</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>94</v>
       </c>
-      <c r="L27" t="s">
-        <v>220</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" t="s">
+        <v>220</v>
+      </c>
+      <c r="N27" s="3">
         <v>44151</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>44211</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
         <v>182</v>
       </c>
@@ -2496,32 +2528,32 @@
       <c r="H28" t="s">
         <v>235</v>
       </c>
-      <c r="I28" t="s">
-        <v>0</v>
-      </c>
       <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>42</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>97</v>
       </c>
-      <c r="L28" t="s">
-        <v>220</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="M28" t="s">
+        <v>220</v>
+      </c>
+      <c r="N28" s="3">
         <v>44039</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>44088</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
         <v>183</v>
       </c>
@@ -2546,29 +2578,29 @@
       <c r="H29" t="s">
         <v>235</v>
       </c>
-      <c r="I29" t="s">
-        <v>0</v>
-      </c>
       <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>37</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>101</v>
       </c>
-      <c r="L29" t="s">
-        <v>220</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N29" s="3">
         <v>44039</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>44133</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
         <v>184</v>
       </c>
@@ -2593,29 +2625,29 @@
       <c r="H30" t="s">
         <v>235</v>
       </c>
-      <c r="I30" t="s">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>42</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>103</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>222</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>44189</v>
       </c>
-      <c r="N30" s="3">
+      <c r="O30" s="3">
         <v>44270</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A31" s="1" t="s">
         <v>185</v>
       </c>
@@ -2640,32 +2672,32 @@
       <c r="H31" t="s">
         <v>235</v>
       </c>
-      <c r="I31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>1824</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>106</v>
       </c>
-      <c r="L31" t="s">
-        <v>220</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="M31" t="s">
+        <v>220</v>
+      </c>
+      <c r="N31" s="3">
         <v>44194</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
         <v>44236</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>107</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
         <v>192</v>
       </c>
@@ -2690,29 +2722,29 @@
       <c r="H32" t="s">
         <v>231</v>
       </c>
-      <c r="I32" t="s">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
         <v>110</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>111</v>
       </c>
-      <c r="L32" t="s">
-        <v>220</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" t="s">
+        <v>220</v>
+      </c>
+      <c r="N32" s="3">
         <v>43811</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>43906</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
         <v>224</v>
       </c>
@@ -2737,29 +2769,29 @@
       <c r="H33" t="s">
         <v>231</v>
       </c>
-      <c r="I33" t="s">
-        <v>0</v>
-      </c>
       <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>110</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>111</v>
       </c>
-      <c r="L33" t="s">
-        <v>220</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" t="s">
+        <v>220</v>
+      </c>
+      <c r="N33" s="3">
         <v>43811</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43906</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A34" s="1" t="s">
         <v>193</v>
       </c>
@@ -2785,28 +2817,31 @@
         <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
         <v>112</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>113</v>
       </c>
-      <c r="L34" t="s">
-        <v>220</v>
-      </c>
-      <c r="M34" s="3">
+      <c r="M34" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" s="3">
         <v>44151</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="3">
         <v>44194</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A35" s="1" t="s">
         <v>195</v>
       </c>
@@ -2829,31 +2864,34 @@
         <v>240</v>
       </c>
       <c r="H35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
         <v>116</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>117</v>
       </c>
-      <c r="L35" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N35" s="3">
         <v>43964</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44050</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A36" s="1" t="s">
         <v>196</v>
       </c>
@@ -2876,31 +2914,34 @@
         <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I36" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
         <v>119</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>120</v>
       </c>
-      <c r="L36" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="3">
+      <c r="M36" t="s">
+        <v>220</v>
+      </c>
+      <c r="N36" s="3">
         <v>43964</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O36" s="3">
         <v>44050</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A37" s="1" t="s">
         <v>197</v>
       </c>
@@ -2923,31 +2964,34 @@
         <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
         <v>122</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>123</v>
       </c>
-      <c r="L37" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" s="3">
+      <c r="M37" t="s">
+        <v>220</v>
+      </c>
+      <c r="N37" s="3">
         <v>43964</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>44050</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A38" s="1" t="s">
         <v>198</v>
       </c>
@@ -2972,32 +3016,32 @@
       <c r="H38" t="s">
         <v>234</v>
       </c>
-      <c r="I38" t="s">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>126</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>127</v>
       </c>
-      <c r="L38" t="s">
-        <v>220</v>
-      </c>
-      <c r="M38" s="3">
+      <c r="M38" t="s">
+        <v>220</v>
+      </c>
+      <c r="N38" s="3">
         <v>44155</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>44217</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>128</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A39" s="1" t="s">
         <v>199</v>
       </c>
@@ -3022,32 +3066,32 @@
       <c r="H39" t="s">
         <v>234</v>
       </c>
-      <c r="I39" t="s">
-        <v>0</v>
-      </c>
       <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
         <v>130</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>131</v>
       </c>
-      <c r="L39" t="s">
-        <v>220</v>
-      </c>
-      <c r="M39" s="3">
+      <c r="M39" t="s">
+        <v>220</v>
+      </c>
+      <c r="N39" s="3">
         <v>44155</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>44217</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>132</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
         <v>194</v>
       </c>
@@ -3072,32 +3116,32 @@
       <c r="H40" t="s">
         <v>231</v>
       </c>
-      <c r="I40" t="s">
-        <v>0</v>
-      </c>
       <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>135</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>136</v>
       </c>
-      <c r="L40" t="s">
-        <v>220</v>
-      </c>
-      <c r="M40" s="3">
+      <c r="M40" t="s">
+        <v>220</v>
+      </c>
+      <c r="N40" s="3">
         <v>44232</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="3">
         <v>44216</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>227</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A41" s="1" t="s">
         <v>223</v>
       </c>
@@ -3122,32 +3166,32 @@
       <c r="H41" t="s">
         <v>231</v>
       </c>
-      <c r="I41" t="s">
-        <v>0</v>
-      </c>
       <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
         <v>135</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>136</v>
       </c>
-      <c r="L41" t="s">
-        <v>220</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" t="s">
+        <v>220</v>
+      </c>
+      <c r="N41" s="3">
         <v>44232</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44216</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>228</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A42" s="1" t="s">
         <v>186</v>
       </c>
@@ -3172,32 +3216,32 @@
       <c r="H42" t="s">
         <v>238</v>
       </c>
-      <c r="I42" t="s">
-        <v>0</v>
-      </c>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="K42" t="s">
         <v>138</v>
       </c>
       <c r="L42" t="s">
-        <v>220</v>
-      </c>
-      <c r="M42" s="3">
+        <v>138</v>
+      </c>
+      <c r="M42" t="s">
+        <v>220</v>
+      </c>
+      <c r="N42" s="3">
         <v>44214</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>44348</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>138</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A43" s="1" t="s">
         <v>187</v>
       </c>
@@ -3222,29 +3266,29 @@
       <c r="H43" t="s">
         <v>231</v>
       </c>
-      <c r="I43" t="s">
-        <v>0</v>
-      </c>
       <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
         <v>140</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>141</v>
       </c>
-      <c r="L43" t="s">
-        <v>220</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" t="s">
+        <v>220</v>
+      </c>
+      <c r="N43" s="3">
         <v>44247</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44284</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A44" s="1" t="s">
         <v>188</v>
       </c>
@@ -3269,29 +3313,29 @@
       <c r="H44" t="s">
         <v>231</v>
       </c>
-      <c r="I44" t="s">
-        <v>0</v>
-      </c>
       <c r="J44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
         <v>143</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>144</v>
       </c>
-      <c r="L44" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" t="s">
+        <v>220</v>
+      </c>
+      <c r="N44" s="3">
         <v>44258</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44302</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A45" s="1" t="s">
         <v>189</v>
       </c>
@@ -3316,29 +3360,29 @@
       <c r="H45" t="s">
         <v>231</v>
       </c>
-      <c r="I45" t="s">
-        <v>0</v>
-      </c>
       <c r="J45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
         <v>146</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>147</v>
       </c>
-      <c r="L45" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" t="s">
+        <v>220</v>
+      </c>
+      <c r="N45" s="3">
         <v>44263</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44302</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A46" s="1" t="s">
         <v>190</v>
       </c>
@@ -3363,32 +3407,32 @@
       <c r="H46" t="s">
         <v>231</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>149</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>66</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>150</v>
       </c>
-      <c r="L46" t="s">
-        <v>220</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" t="s">
+        <v>220</v>
+      </c>
+      <c r="N46" s="3">
         <v>44253</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>44278</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>151</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A47" s="1" t="s">
         <v>191</v>
       </c>
@@ -3413,19 +3457,19 @@
       <c r="H47" t="s">
         <v>231</v>
       </c>
-      <c r="I47" t="s">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
         <v>154</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>155</v>
       </c>
-      <c r="L47" t="s">
-        <v>246</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" t="s">
+        <v>242</v>
+      </c>
+      <c r="N47" s="3">
         <v>44253</v>
       </c>
     </row>

--- a/db_data/cert_kanban.xlsx
+++ b/db_data/cert_kanban.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D5B55E-C6F2-4E8E-BA3B-F964AAEC60C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9667E85C-8CDC-4312-93FB-82F7DB42D5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-16297" windowWidth="28996" windowHeight="15794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -511,138 +512,6 @@
     <t>RDS32-*****16|RDS43-*****16|RVW46-*****|RDS49-*****16|RVW49-*****|RDS55-*****16</t>
   </si>
   <si>
-    <t>CNCCCXDERI20190715001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121002</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121003</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121004</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121005</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121006</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121007</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200121008</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200707001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200727001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200727008</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200827001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20200827002</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20201110001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20201130001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20201231001</t>
-  </si>
-  <si>
-    <t>CNCCCXORIG20200301001</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20191101001</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20191101002</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20191101003</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20200501001</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20201116001</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20201116002</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20201116003</t>
-  </si>
-  <si>
-    <t>CNROHSSDOC20201116004</t>
-  </si>
-  <si>
-    <t>CNSRRCORIG20200727001</t>
-  </si>
-  <si>
-    <t>CNSRRCORIG20200727003</t>
-  </si>
-  <si>
-    <t>CNSRRCORIG20201224001</t>
-  </si>
-  <si>
-    <t>CNSRRCORIG20201229001</t>
-  </si>
-  <si>
-    <t>CNCCCXCHAN20210118001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210220001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210303001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210308001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210226001</t>
-  </si>
-  <si>
-    <t>CNCCCXDERI20210621001</t>
-  </si>
-  <si>
-    <t>EUCEXXDERI20191212001</t>
-  </si>
-  <si>
-    <t>EUROHSSDOC20200501001</t>
-  </si>
-  <si>
-    <t>EUCEXXDERI20210112001</t>
-  </si>
-  <si>
-    <t>THNBTCSDOC20200513001</t>
-  </si>
-  <si>
-    <t>THNBTCSDOC20200513002</t>
-  </si>
-  <si>
-    <t>THNBTCSDOC20200513003</t>
-  </si>
-  <si>
-    <t>TWBSMIORIG20201116001</t>
-  </si>
-  <si>
-    <t>TWBSMIORIG20201116002</t>
-  </si>
-  <si>
     <t>task_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,22 +539,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cert_owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,14 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EUCEXXDERI20210112002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUCEXXDERI20191212002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEEU2003024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -829,6 +678,165 @@
   </si>
   <si>
     <t>cert_method_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>THA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20190715001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121002</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121003</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121004</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121005</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121006</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121007</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200121008</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200707001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200727001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200727008</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200827001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20200827002</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20201110001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20201130001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20201231001</t>
+  </si>
+  <si>
+    <t>CHNCCCXORIG20200301001</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20191101001</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20191101002</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20191101003</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20200501001</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20201116001</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20201116002</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20201116003</t>
+  </si>
+  <si>
+    <t>CHNROHSSDOC20201116004</t>
+  </si>
+  <si>
+    <t>CHNSRRCORIG20200727001</t>
+  </si>
+  <si>
+    <t>CHNSRRCORIG20200727003</t>
+  </si>
+  <si>
+    <t>CHNSRRCORIG20201224001</t>
+  </si>
+  <si>
+    <t>CHNSRRCORIG20201229001</t>
+  </si>
+  <si>
+    <t>CHNCCCXCHAN20210118001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210220001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210303001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210308001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210226001</t>
+  </si>
+  <si>
+    <t>CHNCCCXDERI20210621001</t>
+  </si>
+  <si>
+    <t>EUXCEXXDERI20191212001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUXCEXXDERI20191212002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUXROHSSDOC20200501001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THANBTCSDOC20200513001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THANBTCSDOC20200513002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THANBTCSDOC20200513003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWNBSMIORIG20201116001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWNBSMIORIG20201116002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUXCEXXDERI20210112001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUXCEXXDERI20210112002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1177,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.65"/>
@@ -1191,66 +1199,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="P1" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="Q1" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="R1" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C2">
         <v>2280</v>
@@ -1262,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -1280,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N2" s="3">
         <v>43661</v>
@@ -1294,7 +1302,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1309,13 +1317,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -1327,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N3" s="3">
         <v>43851</v>
@@ -1341,7 +1349,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1356,13 +1364,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
@@ -1374,7 +1382,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N4" s="3">
         <v>43851</v>
@@ -1388,7 +1396,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1403,13 +1411,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -1421,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N5" s="3">
         <v>43851</v>
@@ -1435,7 +1443,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1450,13 +1458,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
         <v>0</v>
@@ -1468,7 +1476,7 @@
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N6" s="3">
         <v>43851</v>
@@ -1482,7 +1490,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1497,13 +1505,13 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
         <v>0</v>
@@ -1515,7 +1523,7 @@
         <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N7" s="3">
         <v>43851</v>
@@ -1529,7 +1537,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1544,13 +1552,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
@@ -1562,7 +1570,7 @@
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N8" s="3">
         <v>43851</v>
@@ -1576,10 +1584,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>2280</v>
@@ -1591,13 +1599,13 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
@@ -1609,7 +1617,7 @@
         <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N9" s="3">
         <v>43851</v>
@@ -1623,10 +1631,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C10">
         <v>4060</v>
@@ -1638,13 +1646,13 @@
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
         <v>0</v>
@@ -1656,7 +1664,7 @@
         <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N10" s="3">
         <v>43851</v>
@@ -1673,7 +1681,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -1688,13 +1696,13 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
@@ -1706,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N11" s="3">
         <v>44019</v>
@@ -1720,7 +1728,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -1735,13 +1743,13 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
         <v>0</v>
@@ -1753,7 +1761,7 @@
         <v>43</v>
       </c>
       <c r="M12" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N12" s="3">
         <v>43922</v>
@@ -1767,7 +1775,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -1782,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J13" t="s">
         <v>0</v>
@@ -1800,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N13" s="3">
         <v>44039</v>
@@ -1814,10 +1822,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1829,13 +1837,13 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J14" t="s">
         <v>0</v>
@@ -1847,7 +1855,7 @@
         <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="N14" s="3">
         <v>44165</v>
@@ -1867,10 +1875,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A15" s="1" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1882,13 +1890,13 @@
         <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
         <v>0</v>
@@ -1900,7 +1908,7 @@
         <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="N15" s="3">
         <v>44165</v>
@@ -1920,7 +1928,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1935,13 +1943,13 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
         <v>0</v>
@@ -1953,7 +1961,7 @@
         <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N16" s="3">
         <v>44145</v>
@@ -1967,7 +1975,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1979,13 +1987,13 @@
         <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
         <v>0</v>
@@ -1994,7 +2002,7 @@
         <v>61</v>
       </c>
       <c r="M17" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="N17" s="3">
         <v>44165</v>
@@ -2008,7 +2016,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -2023,13 +2031,13 @@
         <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
         <v>0</v>
@@ -2041,7 +2049,7 @@
         <v>67</v>
       </c>
       <c r="M18" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N18" s="3">
         <v>44198</v>
@@ -2055,10 +2063,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2070,13 +2078,13 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
         <v>0</v>
@@ -2088,7 +2096,7 @@
         <v>71</v>
       </c>
       <c r="M19" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N19" s="3">
         <v>43891</v>
@@ -2105,10 +2113,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2120,16 +2128,16 @@
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
         <v>0</v>
@@ -2141,7 +2149,7 @@
         <v>75</v>
       </c>
       <c r="M20" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N20" s="3">
         <v>44136</v>
@@ -2155,10 +2163,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2170,16 +2178,16 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
         <v>0</v>
@@ -2191,7 +2199,7 @@
         <v>78</v>
       </c>
       <c r="M21" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N21" s="3">
         <v>44136</v>
@@ -2205,10 +2213,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2220,16 +2228,16 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I22" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
         <v>0</v>
@@ -2241,7 +2249,7 @@
         <v>81</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N22" s="3">
         <v>44136</v>
@@ -2255,10 +2263,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A23" s="1" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2270,16 +2278,16 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
         <v>0</v>
@@ -2291,7 +2299,7 @@
         <v>84</v>
       </c>
       <c r="M23" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N23" s="3">
         <v>43952</v>
@@ -2305,10 +2313,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A24" s="1" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2320,16 +2328,16 @@
         <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H24" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
         <v>0</v>
@@ -2341,7 +2349,7 @@
         <v>71</v>
       </c>
       <c r="M24" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N24" s="3">
         <v>44151</v>
@@ -2355,10 +2363,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A25" s="1" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2370,16 +2378,16 @@
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="J25" t="s">
         <v>0</v>
@@ -2391,7 +2399,7 @@
         <v>88</v>
       </c>
       <c r="M25" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N25" s="3">
         <v>44151</v>
@@ -2405,10 +2413,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2420,16 +2428,16 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H26" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
         <v>0</v>
@@ -2441,7 +2449,7 @@
         <v>91</v>
       </c>
       <c r="M26" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N26" s="3">
         <v>44151</v>
@@ -2455,10 +2463,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2470,16 +2478,16 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H27" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
         <v>0</v>
@@ -2491,7 +2499,7 @@
         <v>94</v>
       </c>
       <c r="M27" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N27" s="3">
         <v>44151</v>
@@ -2505,7 +2513,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
         <v>96</v>
@@ -2520,13 +2528,13 @@
         <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="H28" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="J28" t="s">
         <v>0</v>
@@ -2538,7 +2546,7 @@
         <v>97</v>
       </c>
       <c r="M28" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N28" s="3">
         <v>44039</v>
@@ -2555,7 +2563,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
         <v>100</v>
@@ -2570,13 +2578,13 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="J29" t="s">
         <v>0</v>
@@ -2588,7 +2596,7 @@
         <v>101</v>
       </c>
       <c r="M29" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N29" s="3">
         <v>44039</v>
@@ -2602,10 +2610,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2617,13 +2625,13 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="H30" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="J30" t="s">
         <v>0</v>
@@ -2635,7 +2643,7 @@
         <v>103</v>
       </c>
       <c r="M30" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="N30" s="3">
         <v>44189</v>
@@ -2649,7 +2657,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A31" s="1" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s">
         <v>105</v>
@@ -2664,13 +2672,13 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="H31" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="J31" t="s">
         <v>0</v>
@@ -2682,7 +2690,7 @@
         <v>106</v>
       </c>
       <c r="M31" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N31" s="3">
         <v>44194</v>
@@ -2699,7 +2707,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
         <v>109</v>
@@ -2714,13 +2722,13 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J32" t="s">
         <v>0</v>
@@ -2732,7 +2740,7 @@
         <v>111</v>
       </c>
       <c r="M32" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N32" s="3">
         <v>43811</v>
@@ -2741,12 +2749,12 @@
         <v>43906</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A33" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s">
         <v>109</v>
@@ -2761,13 +2769,13 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="H33" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J33" t="s">
         <v>0</v>
@@ -2779,7 +2787,7 @@
         <v>111</v>
       </c>
       <c r="M33" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N33" s="3">
         <v>43811</v>
@@ -2788,15 +2796,15 @@
         <v>43906</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2808,16 +2816,16 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="J34" t="s">
         <v>0</v>
@@ -2829,7 +2837,7 @@
         <v>113</v>
       </c>
       <c r="M34" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N34" s="3">
         <v>44151</v>
@@ -2843,7 +2851,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A35" s="1" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
         <v>115</v>
@@ -2858,16 +2866,16 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="J35" t="s">
         <v>0</v>
@@ -2879,7 +2887,7 @@
         <v>117</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N35" s="3">
         <v>43964</v>
@@ -2893,7 +2901,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A36" s="1" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
         <v>115</v>
@@ -2908,16 +2916,16 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="J36" t="s">
         <v>0</v>
@@ -2929,7 +2937,7 @@
         <v>120</v>
       </c>
       <c r="M36" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N36" s="3">
         <v>43964</v>
@@ -2943,7 +2951,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A37" s="1" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
         <v>115</v>
@@ -2958,16 +2966,16 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="J37" t="s">
         <v>0</v>
@@ -2979,7 +2987,7 @@
         <v>123</v>
       </c>
       <c r="M37" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N37" s="3">
         <v>43964</v>
@@ -2993,7 +3001,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A38" s="1" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
         <v>125</v>
@@ -3008,13 +3016,13 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="H38" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="J38" t="s">
         <v>0</v>
@@ -3026,7 +3034,7 @@
         <v>127</v>
       </c>
       <c r="M38" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N38" s="3">
         <v>44155</v>
@@ -3043,7 +3051,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A39" s="1" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
         <v>125</v>
@@ -3058,13 +3066,13 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="H39" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="J39" t="s">
         <v>0</v>
@@ -3076,7 +3084,7 @@
         <v>131</v>
       </c>
       <c r="M39" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N39" s="3">
         <v>44155</v>
@@ -3093,7 +3101,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A40" s="1" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
@@ -3108,13 +3116,13 @@
         <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J40" t="s">
         <v>0</v>
@@ -3126,7 +3134,7 @@
         <v>136</v>
       </c>
       <c r="M40" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N40" s="3">
         <v>44232</v>
@@ -3135,7 +3143,7 @@
         <v>44216</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="R40" t="s">
         <v>137</v>
@@ -3143,7 +3151,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A41" s="1" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s">
         <v>133</v>
@@ -3158,13 +3166,13 @@
         <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
         <v>0</v>
@@ -3176,7 +3184,7 @@
         <v>136</v>
       </c>
       <c r="M41" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N41" s="3">
         <v>44232</v>
@@ -3185,7 +3193,7 @@
         <v>44216</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="R41" t="s">
         <v>137</v>
@@ -3193,10 +3201,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A42" s="1" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3208,13 +3216,13 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H42" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="J42" t="s">
         <v>0</v>
@@ -3226,7 +3234,7 @@
         <v>138</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N42" s="3">
         <v>44214</v>
@@ -3243,10 +3251,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C43">
         <v>2280</v>
@@ -3258,13 +3266,13 @@
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G43" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J43" t="s">
         <v>0</v>
@@ -3276,7 +3284,7 @@
         <v>141</v>
       </c>
       <c r="M43" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N43" s="3">
         <v>44247</v>
@@ -3290,10 +3298,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A44" s="1" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C44">
         <v>2280</v>
@@ -3305,13 +3313,13 @@
         <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
         <v>0</v>
@@ -3323,7 +3331,7 @@
         <v>144</v>
       </c>
       <c r="M44" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N44" s="3">
         <v>44258</v>
@@ -3337,10 +3345,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A45" s="1" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C45">
         <v>2280</v>
@@ -3352,13 +3360,13 @@
         <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H45" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J45" t="s">
         <v>0</v>
@@ -3370,7 +3378,7 @@
         <v>147</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N45" s="3">
         <v>44263</v>
@@ -3384,10 +3392,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A46" s="1" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3399,13 +3407,13 @@
         <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J46" t="s">
         <v>149</v>
@@ -3417,7 +3425,7 @@
         <v>150</v>
       </c>
       <c r="M46" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="N46" s="3">
         <v>44253</v>
@@ -3434,7 +3442,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A47" s="1" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
         <v>153</v>
@@ -3449,13 +3457,13 @@
         <v>65</v>
       </c>
       <c r="F47" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="J47" t="s">
         <v>0</v>
@@ -3467,12 +3475,76 @@
         <v>155</v>
       </c>
       <c r="M47" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="N47" s="3">
         <v>44253</v>
       </c>
     </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B136E652-B8FA-48E9-884D-0B8D230F3A14}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="2" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="3" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="4" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="5" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="6" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="7" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="8" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="9" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="10" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="11" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="12" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="13" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="14" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="15" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="16" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="17" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="18" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="19" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="20" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="21" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="22" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="23" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="24" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="25" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="26" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="27" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="28" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="29" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="30" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="31" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="32" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="33" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="34" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="35" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="36" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="37" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="38" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="39" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="40" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="41" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="42" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="43" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="44" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="45" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="46" ht="14.1" x14ac:dyDescent="0.5"/>
+    <row r="47" ht="14.1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
